--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tslp-Il7r.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tslp-Il7r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +95,6 @@
   </si>
   <si>
     <t>Il7r</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.559394245743512</v>
+        <v>0.9251003333333333</v>
       </c>
       <c r="H2">
-        <v>0.559394245743512</v>
+        <v>2.775301</v>
       </c>
       <c r="I2">
-        <v>0.6095151960345943</v>
+        <v>0.2628530929907478</v>
       </c>
       <c r="J2">
-        <v>0.6095151960345943</v>
+        <v>0.2806392177011457</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.1183878503244</v>
+        <v>31.464649</v>
       </c>
       <c r="N2">
-        <v>31.1183878503244</v>
+        <v>94.393947</v>
       </c>
       <c r="O2">
-        <v>0.5463446362912538</v>
+        <v>0.5474848135431929</v>
       </c>
       <c r="P2">
-        <v>0.5463446362912538</v>
+        <v>0.547967202152804</v>
       </c>
       <c r="Q2">
-        <v>17.40744710028629</v>
+        <v>29.10795727811633</v>
       </c>
       <c r="R2">
-        <v>17.40744710028629</v>
+        <v>261.971615503047</v>
       </c>
       <c r="S2">
-        <v>0.3330053580915127</v>
+        <v>0.1439080766052911</v>
       </c>
       <c r="T2">
-        <v>0.3330053580915127</v>
+        <v>0.1537810869380485</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,123 +587,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.559394245743512</v>
+        <v>0.9251003333333333</v>
       </c>
       <c r="H3">
-        <v>0.559394245743512</v>
+        <v>2.775301</v>
       </c>
       <c r="I3">
-        <v>0.6095151960345943</v>
+        <v>0.2628530929907478</v>
       </c>
       <c r="J3">
-        <v>0.6095151960345943</v>
+        <v>0.2806392177011457</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.8390448455744</v>
+        <v>25.85484366666666</v>
       </c>
       <c r="N3">
-        <v>25.8390448455744</v>
+        <v>77.56453099999999</v>
       </c>
       <c r="O3">
-        <v>0.4536553637087461</v>
+        <v>0.4498742148381634</v>
       </c>
       <c r="P3">
-        <v>0.4536553637087461</v>
+        <v>0.4502705987955396</v>
       </c>
       <c r="Q3">
-        <v>14.45421300212287</v>
+        <v>23.91832449431455</v>
       </c>
       <c r="R3">
-        <v>14.45421300212287</v>
+        <v>215.264920448831</v>
       </c>
       <c r="S3">
-        <v>0.2765098379430815</v>
+        <v>0.1182508288269954</v>
       </c>
       <c r="T3">
-        <v>0.2765098379430815</v>
+        <v>0.1263635885998067</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.358374908139507</v>
+        <v>0.9251003333333333</v>
       </c>
       <c r="H4">
-        <v>0.358374908139507</v>
+        <v>2.775301</v>
       </c>
       <c r="I4">
-        <v>0.3904848039654057</v>
+        <v>0.2628530929907478</v>
       </c>
       <c r="J4">
-        <v>0.3904848039654057</v>
+        <v>0.2806392177011457</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>31.1183878503244</v>
+        <v>0.15178</v>
       </c>
       <c r="N4">
-        <v>31.1183878503244</v>
+        <v>0.30356</v>
       </c>
       <c r="O4">
-        <v>0.5463446362912538</v>
+        <v>0.002640971618643699</v>
       </c>
       <c r="P4">
-        <v>0.5463446362912538</v>
+        <v>0.001762199051656407</v>
       </c>
       <c r="Q4">
-        <v>11.15204938730956</v>
+        <v>0.1404117285933333</v>
       </c>
       <c r="R4">
-        <v>11.15204938730956</v>
+        <v>0.8424703715599999</v>
       </c>
       <c r="S4">
-        <v>0.2133392781997412</v>
+        <v>0.0006941875584612777</v>
       </c>
       <c r="T4">
-        <v>0.2133392781997412</v>
+        <v>0.000494542163290555</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,743 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.7509579999999999</v>
+      </c>
+      <c r="H5">
+        <v>2.252874</v>
+      </c>
+      <c r="I5">
+        <v>0.2133732157407207</v>
+      </c>
+      <c r="J5">
+        <v>0.2278112525233302</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>31.464649</v>
+      </c>
+      <c r="N5">
+        <v>94.393947</v>
+      </c>
+      <c r="O5">
+        <v>0.5474848135431929</v>
+      </c>
+      <c r="P5">
+        <v>0.547967202152804</v>
+      </c>
+      <c r="Q5">
+        <v>23.628629883742</v>
+      </c>
+      <c r="R5">
+        <v>212.657668953678</v>
+      </c>
+      <c r="S5">
+        <v>0.1168185952349199</v>
+      </c>
+      <c r="T5">
+        <v>0.1248330946641352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.7509579999999999</v>
+      </c>
+      <c r="H6">
+        <v>2.252874</v>
+      </c>
+      <c r="I6">
+        <v>0.2133732157407207</v>
+      </c>
+      <c r="J6">
+        <v>0.2278112525233302</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>25.85484366666666</v>
+      </c>
+      <c r="N6">
+        <v>77.56453099999999</v>
+      </c>
+      <c r="O6">
+        <v>0.4498742148381634</v>
+      </c>
+      <c r="P6">
+        <v>0.4502705987955396</v>
+      </c>
+      <c r="Q6">
+        <v>19.41590169023266</v>
+      </c>
+      <c r="R6">
+        <v>174.743115212094</v>
+      </c>
+      <c r="S6">
+        <v>0.09599110789885076</v>
+      </c>
+      <c r="T6">
+        <v>0.1025767090860418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.358374908139507</v>
-      </c>
-      <c r="H5">
-        <v>0.358374908139507</v>
-      </c>
-      <c r="I5">
-        <v>0.3904848039654057</v>
-      </c>
-      <c r="J5">
-        <v>0.3904848039654057</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>25.8390448455744</v>
-      </c>
-      <c r="N5">
-        <v>25.8390448455744</v>
-      </c>
-      <c r="O5">
-        <v>0.4536553637087461</v>
-      </c>
-      <c r="P5">
-        <v>0.4536553637087461</v>
-      </c>
-      <c r="Q5">
-        <v>9.260065322945328</v>
-      </c>
-      <c r="R5">
-        <v>9.260065322945328</v>
-      </c>
-      <c r="S5">
-        <v>0.1771455257656646</v>
-      </c>
-      <c r="T5">
-        <v>0.1771455257656646</v>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.7509579999999999</v>
+      </c>
+      <c r="H7">
+        <v>2.252874</v>
+      </c>
+      <c r="I7">
+        <v>0.2133732157407207</v>
+      </c>
+      <c r="J7">
+        <v>0.2278112525233302</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <v>0.15178</v>
+      </c>
+      <c r="N7">
+        <v>0.30356</v>
+      </c>
+      <c r="O7">
+        <v>0.002640971618643699</v>
+      </c>
+      <c r="P7">
+        <v>0.001762199051656407</v>
+      </c>
+      <c r="Q7">
+        <v>0.11398040524</v>
+      </c>
+      <c r="R7">
+        <v>0.6838824314399999</v>
+      </c>
+      <c r="S7">
+        <v>0.0005635126069499822</v>
+      </c>
+      <c r="T7">
+        <v>0.0004014487731532709</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.7632633333333333</v>
+      </c>
+      <c r="H8">
+        <v>2.28979</v>
+      </c>
+      <c r="I8">
+        <v>0.2168695877669789</v>
+      </c>
+      <c r="J8">
+        <v>0.2315442088263242</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>31.464649</v>
+      </c>
+      <c r="N8">
+        <v>94.393947</v>
+      </c>
+      <c r="O8">
+        <v>0.5474848135431929</v>
+      </c>
+      <c r="P8">
+        <v>0.547967202152804</v>
+      </c>
+      <c r="Q8">
+        <v>24.01581287790333</v>
+      </c>
+      <c r="R8">
+        <v>216.14231590113</v>
+      </c>
+      <c r="S8">
+        <v>0.1187328058217935</v>
+      </c>
+      <c r="T8">
+        <v>0.1268786322852455</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.7632633333333333</v>
+      </c>
+      <c r="H9">
+        <v>2.28979</v>
+      </c>
+      <c r="I9">
+        <v>0.2168695877669789</v>
+      </c>
+      <c r="J9">
+        <v>0.2315442088263242</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>25.85484366666666</v>
+      </c>
+      <c r="N9">
+        <v>77.56453099999999</v>
+      </c>
+      <c r="O9">
+        <v>0.4498742148381634</v>
+      </c>
+      <c r="P9">
+        <v>0.4502705987955396</v>
+      </c>
+      <c r="Q9">
+        <v>19.73405415983222</v>
+      </c>
+      <c r="R9">
+        <v>177.60648743849</v>
+      </c>
+      <c r="S9">
+        <v>0.0975640355189458</v>
+      </c>
+      <c r="T9">
+        <v>0.1042575495558685</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.7632633333333333</v>
+      </c>
+      <c r="H10">
+        <v>2.28979</v>
+      </c>
+      <c r="I10">
+        <v>0.2168695877669789</v>
+      </c>
+      <c r="J10">
+        <v>0.2315442088263242</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="M10">
+        <v>0.15178</v>
+      </c>
+      <c r="N10">
+        <v>0.30356</v>
+      </c>
+      <c r="O10">
+        <v>0.002640971618643699</v>
+      </c>
+      <c r="P10">
+        <v>0.001762199051656407</v>
+      </c>
+      <c r="Q10">
+        <v>0.1158481087333333</v>
+      </c>
+      <c r="R10">
+        <v>0.6950886524</v>
+      </c>
+      <c r="S10">
+        <v>0.0005727464262395499</v>
+      </c>
+      <c r="T10">
+        <v>0.0004080269852102817</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.410976</v>
+      </c>
+      <c r="H11">
+        <v>1.232928</v>
+      </c>
+      <c r="I11">
+        <v>0.1167725368293013</v>
+      </c>
+      <c r="J11">
+        <v>0.1246740261333233</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>31.464649</v>
+      </c>
+      <c r="N11">
+        <v>94.393947</v>
+      </c>
+      <c r="O11">
+        <v>0.5474848135431929</v>
+      </c>
+      <c r="P11">
+        <v>0.547967202152804</v>
+      </c>
+      <c r="Q11">
+        <v>12.931215587424</v>
+      </c>
+      <c r="R11">
+        <v>116.380940286816</v>
+      </c>
+      <c r="S11">
+        <v>0.06393119055295564</v>
+      </c>
+      <c r="T11">
+        <v>0.06831727728140273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.410976</v>
+      </c>
+      <c r="H12">
+        <v>1.232928</v>
+      </c>
+      <c r="I12">
+        <v>0.1167725368293013</v>
+      </c>
+      <c r="J12">
+        <v>0.1246740261333233</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>25.85484366666666</v>
+      </c>
+      <c r="N12">
+        <v>77.56453099999999</v>
+      </c>
+      <c r="O12">
+        <v>0.4498742148381634</v>
+      </c>
+      <c r="P12">
+        <v>0.4502705987955396</v>
+      </c>
+      <c r="Q12">
+        <v>10.625720230752</v>
+      </c>
+      <c r="R12">
+        <v>95.63148207676798</v>
+      </c>
+      <c r="S12">
+        <v>0.05253295332074243</v>
+      </c>
+      <c r="T12">
+        <v>0.05613704840130222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.410976</v>
+      </c>
+      <c r="H13">
+        <v>1.232928</v>
+      </c>
+      <c r="I13">
+        <v>0.1167725368293013</v>
+      </c>
+      <c r="J13">
+        <v>0.1246740261333233</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.15178</v>
+      </c>
+      <c r="N13">
+        <v>0.30356</v>
+      </c>
+      <c r="O13">
+        <v>0.002640971618643699</v>
+      </c>
+      <c r="P13">
+        <v>0.001762199051656407</v>
+      </c>
+      <c r="Q13">
+        <v>0.06237793728</v>
+      </c>
+      <c r="R13">
+        <v>0.37426762368</v>
+      </c>
+      <c r="S13">
+        <v>0.0003083929556032107</v>
+      </c>
+      <c r="T13">
+        <v>0.0002197004506183284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.66916</v>
+      </c>
+      <c r="H14">
+        <v>1.33832</v>
+      </c>
+      <c r="I14">
+        <v>0.1901315666722515</v>
+      </c>
+      <c r="J14">
+        <v>0.1353312948158767</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>31.464649</v>
+      </c>
+      <c r="N14">
+        <v>94.393947</v>
+      </c>
+      <c r="O14">
+        <v>0.5474848135431929</v>
+      </c>
+      <c r="P14">
+        <v>0.547967202152804</v>
+      </c>
+      <c r="Q14">
+        <v>21.05488452484</v>
+      </c>
+      <c r="R14">
+        <v>126.32930714904</v>
+      </c>
+      <c r="S14">
+        <v>0.1040941453282328</v>
+      </c>
+      <c r="T14">
+        <v>0.07415711098397221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.66916</v>
+      </c>
+      <c r="H15">
+        <v>1.33832</v>
+      </c>
+      <c r="I15">
+        <v>0.1901315666722515</v>
+      </c>
+      <c r="J15">
+        <v>0.1353312948158767</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>25.85484366666666</v>
+      </c>
+      <c r="N15">
+        <v>77.56453099999999</v>
+      </c>
+      <c r="O15">
+        <v>0.4498742148381634</v>
+      </c>
+      <c r="P15">
+        <v>0.4502705987955396</v>
+      </c>
+      <c r="Q15">
+        <v>17.30102718798667</v>
+      </c>
+      <c r="R15">
+        <v>103.80616312792</v>
+      </c>
+      <c r="S15">
+        <v>0.08553528927262907</v>
+      </c>
+      <c r="T15">
+        <v>0.06093570315252049</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.66916</v>
+      </c>
+      <c r="H16">
+        <v>1.33832</v>
+      </c>
+      <c r="I16">
+        <v>0.1901315666722515</v>
+      </c>
+      <c r="J16">
+        <v>0.1353312948158767</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.15178</v>
+      </c>
+      <c r="N16">
+        <v>0.30356</v>
+      </c>
+      <c r="O16">
+        <v>0.002640971618643699</v>
+      </c>
+      <c r="P16">
+        <v>0.001762199051656407</v>
+      </c>
+      <c r="Q16">
+        <v>0.1015651048</v>
+      </c>
+      <c r="R16">
+        <v>0.4062604192</v>
+      </c>
+      <c r="S16">
+        <v>0.0005021320713896784</v>
+      </c>
+      <c r="T16">
+        <v>0.0002384806793839715</v>
       </c>
     </row>
   </sheetData>
